--- a/data/financial_statements/sofp/JBHT.xlsx
+++ b/data/financial_statements/sofp/JBHT.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,1444 +593,1471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>51927000</v>
+      </c>
+      <c r="C2">
         <v>84334000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>123841000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>144529000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>355549000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>529595000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>570918000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>552970000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>313302000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>318549000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>274654000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>48454000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>35000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>75132000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>6875000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>52363000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>7600000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>7587000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>15191000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>7082000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>14612000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>7707000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>7274000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>12261000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>6377000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>5481000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>11277000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>5992000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>5566000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>5542000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>5586000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>5646000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>5961000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>5859000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>5870000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>124212000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>5831000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>5968000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>5923000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>5747000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>1528075000</v>
+      </c>
+      <c r="C3">
         <v>1726155000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1776773000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1745647000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1506619000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1442948000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1293924000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1219162000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1310252000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1121825000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>950636000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>978280000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1242160000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1051027000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1040153000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1002483000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1326209000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1095638000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1019622000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>900903000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1204266000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>858720000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>749042000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>707433000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>745288000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>775020000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>744026000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>690352000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>731280000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>671398000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>665241000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>631172000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>653795000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>671298000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>667620000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>635111000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>568519000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>584914000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>579643000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>529333000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4">
         <v>25000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>23804000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>21106000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>21977000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>20688000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>18577000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>23191000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>27740000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>26248000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>342000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>381000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>380000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>210000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>293000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>344000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>360000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>195000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>288000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>319000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>371000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>189665000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>95457000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>15415000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>2167536000</v>
+      </c>
+      <c r="C6">
         <v>2152416000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2281918000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2269797000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2313369000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2265147000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2209299000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2131999000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1842117000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1728598000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1544697000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1397969000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1481299000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1383456000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1384364000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1438159000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1502981000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1342482000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1307421000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1236064000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1338728000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1006591000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>908351000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>893341000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>1067420000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>842401000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>827008000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>814930000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>857925000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>768171000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>786630000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>803512000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>861499000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>737678000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>739225000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>842068000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>680203000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>648032000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>651562000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>615198000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>4979817000</v>
+      </c>
+      <c r="C7">
         <v>4708007000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4447695000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4234266000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4067655000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3854584000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3717728000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3650921000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3688894000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3682404000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3626396000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3618300000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>3620866000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3650362000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>3678085000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3539738000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3445111000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3241507000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>3142387000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>3044276000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2983331000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2875809000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2820030000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>2830628000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2818791000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>2808741000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>2766915000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>2739366000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>2701329000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2670509000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>2626104000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>2552863000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>2482532000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>2385106000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>2316545000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2236101000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>2112204000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>2037386000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>1976226000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1941426000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>24000000</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C8">
         <v>24000000</v>
       </c>
       <c r="D8">
+        <v>24000000</v>
+      </c>
+      <c r="E8">
         <v>28000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>32000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>30000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>35000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>32000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>36000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>32000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>35000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>29000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>241443000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>236489000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>241633000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>191093000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>201706000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>204886000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>208399000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>212122000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>192648000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>196042000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>199437000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>202832000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>189863000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>193403000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>196940000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>105157000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>113455000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>114422000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>2356000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>594988000</v>
+      </c>
+      <c r="C10">
         <v>329693000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>286460000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>286245000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>222231000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>191753000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>191481000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>171287000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>185215000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>175412000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>186497000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>164336000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>165857000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>162656000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>164887000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>152445000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>38398000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>137682000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>139435000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>141317000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>29835000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>57101000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>50001000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>46426000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>62160000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>78852000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>103441000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>92662000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>70290000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>80584000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>72616000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>72622000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>34455000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>36134000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>35589000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>37556000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>26997000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>27016000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>28528000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>29495000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>5574805000</v>
+      </c>
+      <c r="C11">
         <v>5279143000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4970644000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4762144000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>4480979000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4248043000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4114095000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4030607000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4086231000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4050464000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4008935000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>3982073000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>3989555000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>4002881000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>4036375000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>3889123000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>3588666000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>3379189000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>3281822000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>3185593000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>3126621000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>3047332000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>2870031000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>2877054000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>2883307000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>2887593000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>2870356000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>2832028000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>2771619000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>2751093000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>2698720000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>2625485000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>2516987000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>2421240000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>2352134000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>2273657000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>2139201000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>2064402000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>2004754000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1970921000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>7742341000</v>
+      </c>
+      <c r="C12">
         <v>7431559000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>7252562000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>7031941000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>6794348000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>6513190000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>6323394000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>6162606000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5928348000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>5779062000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>5553632000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>5380042000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>5470854000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>5386337000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>5420739000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>5327282000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>5091647000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>4721671000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>4589243000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>4421657000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>4465349000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>4053923000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>3778382000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>3770395000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>3950727000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>3729994000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>3697364000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>3646958000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>3629544000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>3519264000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>3485350000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>3428997000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>3378486000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>3158918000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>3091359000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>3115725000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>2819404000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>2712434000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>2656316000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>2586119000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>798776000</v>
+      </c>
+      <c r="C13">
         <v>838859000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>886617000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>854879000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>772736000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>749071000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>674856000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>641887000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>587510000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>603523000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>513517000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>497649000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>602601000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>654959000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>640324000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>594704000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>709736000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>569453000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>551715000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>503829000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>598594000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>493585000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>419306000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>369763000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>384308000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>402913000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>343652000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>381185000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>340332000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>355671000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>341520000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>328111000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>325838000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>352645000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>338063000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>371235000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>305465000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>304799000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>364195000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>374968000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>640401000</v>
+      </c>
+      <c r="C14">
         <v>548914000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>510587000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>453130000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>498160000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>452077000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>457049000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>440626000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>406999000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>418198000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>368517000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>341276000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>347810000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>348450000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>336951000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>331472000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>356061000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>353938000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>322870000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>315495000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>294362000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>165159000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>160361000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>163918000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>283413000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>177163000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>181865000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>178238000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>163640000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>170096000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>164094000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>171302000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>177266000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>162275000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>156391000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>142848000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>140284000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>122996000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>117875000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>104335000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15">
         <v>349955000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>351214000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>355972000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>354755000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>48000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>250706000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>248680000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>249436000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>247609000</v>
-      </c>
-      <c r="AE15">
-        <v>250000000</v>
       </c>
       <c r="AF15">
         <v>250000000</v>
@@ -1927,31 +2068,31 @@
       <c r="AH15">
         <v>250000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AI15">
+        <v>250000000</v>
+      </c>
+      <c r="AK15">
         <v>100000000</v>
-      </c>
-      <c r="AK15">
-        <v>250000000</v>
       </c>
       <c r="AL15">
         <v>250000000</v>
       </c>
       <c r="AM15">
-        <v>200000000</v>
+        <v>250000000</v>
       </c>
       <c r="AN15">
         <v>200000000</v>
       </c>
+      <c r="AO15">
+        <v>200000000</v>
+      </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI16">
         <v>13787000</v>
-      </c>
-      <c r="AI16">
-        <v>2485000</v>
       </c>
       <c r="AJ16">
         <v>2485000</v>
@@ -1960,7 +2101,7 @@
         <v>2485000</v>
       </c>
       <c r="AL16">
-        <v>750000</v>
+        <v>2485000</v>
       </c>
       <c r="AM16">
         <v>750000</v>
@@ -1968,815 +2109,833 @@
       <c r="AN16">
         <v>750000</v>
       </c>
+      <c r="AO16">
+        <v>750000</v>
+      </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>662000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>633000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>579000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>543000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>541000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>553000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>525000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>449000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>492000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>457000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>412000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>1568231000</v>
+      </c>
+      <c r="C18">
         <v>1500724000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1870065000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1784730000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1729600000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1644627000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1228355000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1166400000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1084803000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1095423000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>970682000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>909376000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1035766000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1075024000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1061522000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>998239000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1352348000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1212660000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1158537000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1092516000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>921844000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>681755000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>608092000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>586525000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>694873000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>600845000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>552716000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>580714000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>532417000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>544048000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>776605000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>762331000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>771070000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>790292000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>514634000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>662804000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>712296000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>690338000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>699106000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>727221000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>1261738000</v>
+      </c>
+      <c r="C19">
         <v>1243814000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>945999000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>945628000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>945257000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>944887000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1303467000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1301430000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1305424000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1303353000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1307019000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1302756000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1295740000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1293312000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1372143000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1284550000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>898398000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>820864000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>755575000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>752423000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>1085649000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>1084801000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>943174000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>950558000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>986278000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>943696000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>957574000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>961346000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>998003000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>993353000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>643202000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>628203000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>683539000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>587074000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>874028000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>752207000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>458417000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>437474000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>474132000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>393289000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>876290000</v>
+      </c>
+      <c r="C20">
         <v>835905000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>810631000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>753727000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>745442000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>730588000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>728968000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>723018000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>692022000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>711301000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>699698000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>714548000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>699078000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>644105000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>676062000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>668490000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>643461000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>518428000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>552866000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>545282000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>541870000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>746833000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>753277000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>792561000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>790634000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>731068000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>742574000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>755477000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>740220000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>673030000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>667141000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>700518000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>659793000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>556349000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>560293000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>572679000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>577965000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>547422000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>528151000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>536022000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>369314000</v>
+      </c>
+      <c r="C21">
         <v>346007000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>301003000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>294314000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>256233000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>270860000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>263576000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>249692000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>245961000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>181561000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>185390000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>170944000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>173241000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>180367000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>175656000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>172239000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>96056000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>89141000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>88903000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>88373000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>76661000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>68564000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>66118000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>68457000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>64881000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>69302000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>65075000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>63341000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>58552000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>59646000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>59197000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>60565000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>59561000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>65384000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>61287000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>59910000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>58274000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>56723000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>52688000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>53815000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>2507342000</v>
+      </c>
+      <c r="C22">
         <v>2425726000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2057633000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1993669000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1946932000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1946335000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2296011000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2274140000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2243407000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2196215000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>2192107000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2188248000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2168059000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>2117784000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>2223861000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>2125279000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1637915000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1428433000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>1397344000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1386078000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1704180000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1900198000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>1762569000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1811576000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>1841793000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>1744066000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>1765223000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1780164000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>1796775000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>1726029000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>1369540000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>1389286000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>1402893000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>1208807000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>1495608000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>1384796000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>1094656000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>1041619000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>1054971000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>983126000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>4075573000</v>
+      </c>
+      <c r="C23">
         <v>3926450000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>3927698000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>3778399000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>3676532000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3590962000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>3524366000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>3440540000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>3328210000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>3291638000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>3162789000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>3097624000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>3203825000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>3192808000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>3285383000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>3123518000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2990263000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>2641093000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>2555881000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>2478594000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>2626024000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>2581953000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>2370661000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>2398101000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>2536666000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>2344911000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>2317939000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>2360878000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>2329192000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>2270077000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>2146145000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>2151617000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>2173963000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>1999099000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>2010242000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>2047600000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>1806952000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>1731957000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>1754077000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>1710347000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24">
         <v>448217000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>408244000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>374049000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>340457000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>310811000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>293087000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>268728000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>247641000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>226595000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2000000</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C25">
         <v>2000000</v>
@@ -2797,10 +2956,10 @@
         <v>2000000</v>
       </c>
       <c r="I25">
+        <v>2000000</v>
+      </c>
+      <c r="J25">
         <v>1671000</v>
-      </c>
-      <c r="J25">
-        <v>2000000</v>
       </c>
       <c r="K25">
         <v>2000000</v>
@@ -2809,906 +2968,927 @@
         <v>2000000</v>
       </c>
       <c r="M25">
+        <v>2000000</v>
+      </c>
+      <c r="N25">
         <v>1671000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1671000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1671000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1671000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1671000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1671000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1671000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>6264000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>6036000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>5822000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>5621000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>5410000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5242000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>5102000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>4984739000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>4859000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>4762000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>4669000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>4592938000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>4188435000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>3803844000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>3218943000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>2885843000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>2555972000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>2274784000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27">
         <v>2953175000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2794516000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2701629000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2429179000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>2277001000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>2099640000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1855890000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>1600761000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>1490598000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>3505000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>3325000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>3254000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>3118000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2922000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2799000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2722000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2600138000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>2487000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2391000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>2282000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2267029000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>2101384000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>1839325000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1414061000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1300352000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>1204523000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>1012452000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>3666768000</v>
+      </c>
+      <c r="C29">
         <v>3505109000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>3324864000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3253542000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>3117816000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2922228000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2799028000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2722066000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2600138000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>2487424000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2390843000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>2282418000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2267029000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>2193529000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>2135356000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2203764000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>2101384000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>2080578000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>2033362000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1943063000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>1839325000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1471970000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1407721000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1372294000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1414061000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>1385083000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>1379425000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>1286080000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1300352000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1249187000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1339205000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1277380000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>1204523000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>1159819000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>1081117000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>1068125000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>1012452000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>980477000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>902239000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>875772000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>7742341000</v>
+      </c>
+      <c r="C30">
         <v>7431559000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>7252562000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>7031941000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>6794348000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>6513190000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>6323394000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>6162606000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>5928348000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>5779062000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>5553632000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>5380042000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>5470854000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>5386337000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>5420739000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>5327282000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>5091647000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>4721671000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>4589243000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>4421657000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>4465349000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>4053923000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>3778382000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>3770395000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>3950727000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>3729994000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>3697364000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>3646958000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>3629544000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>3519264000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>3485350000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>3428997000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>3378486000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>3158918000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>3091359000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>3115725000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>2819404000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>2712434000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>2656316000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>2586119000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>103743000</v>
+      </c>
+      <c r="C31">
         <v>103537000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>103813000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>104783000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>105094000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>105014000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>105196000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>105671000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>105654000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>105679000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>105507000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>105461000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>106213000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>106578000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>106768000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>108739000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>108711000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>109176000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>109344000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>109756000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>109753000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>109752000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>109435000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>109983000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>111305000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>112185000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>112680000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>112654000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>113948000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>114601000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>116251000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>116556000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>116575000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>117154000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>116547000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>117260000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>117241000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>117856000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>117067000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>117583000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>3666768000</v>
+      </c>
+      <c r="C32">
         <v>3263666000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>3088375000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>3011909000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2926723000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2720522000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2594142000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2513667000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2388016000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>2294776000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>2194801000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>2082981000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>2064197000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>2003666000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>1941953000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>2006824000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1996227000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>2080578000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>2033362000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>1943063000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>1725870000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>1357548000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>1407721000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>1372294000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1411705000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>1385083000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>1379425000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>1286080000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>1300352000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>1249187000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>1339205000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>1277380000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>1204523000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>1159819000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>1081117000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>1068125000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>1012452000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>980477100</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>902238900</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>875771900</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>1209811000</v>
+      </c>
+      <c r="C33">
         <v>1159480000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1172113000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1152313000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>945680000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>770047000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>732549000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>748460000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>1040122000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>984804000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>1032365000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>1254302000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>1260740000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>1218180000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>1365268000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>1232187000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>1141504000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>1061957000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>989820000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>992950000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>1071037000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>1077094000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>935900000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>938297000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>979901000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>938215000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>946297000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>955354000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>992437000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>987811000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>887616000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>872557000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>927578000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>831215000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>868158000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>727995000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>702586000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>681506000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>668209000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>587542000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>1261738000</v>
+      </c>
+      <c r="C34">
         <v>1243814000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1295954000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1296842000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1301229000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1299642000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1303467000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1301430000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1353424000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1303353000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>1307019000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1302756000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>1295740000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>1293312000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>1372143000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>1284550000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>1149104000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>1069544000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>1005011000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>1000032000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>1085649000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>1084801000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>943174000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>950558000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>986278000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>943696000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>957574000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>961346000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>998003000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>993353000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>893202000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>878203000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>933539000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>837074000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>874028000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>852207000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>708417000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>687474000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>674132000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>593289000</v>
       </c>
     </row>
